--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Tue</t>
   </si>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hours</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,6 +195,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4437529" y="336176"/>
+          <a:ext cx="224118" cy="6499412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 427206"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4852147" y="3104029"/>
+          <a:ext cx="1456765" cy="1120589"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63087"/>
+            <a:gd name="adj2" fmla="val -6500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Srini</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> needs to work 9 hours per day including Saturday or Sunday till 11-Mar.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,15 +611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="8" width="14.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
@@ -1277,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>44997</v>
@@ -1286,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>44998</v>
@@ -1298,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>44999</v>
@@ -1310,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>45000</v>
@@ -1322,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>45001</v>
@@ -1334,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45002</v>
@@ -1346,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>45003</v>
@@ -1355,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>45004</v>
@@ -1364,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>45005</v>
@@ -1376,7 +1507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>45006</v>
@@ -1388,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>45007</v>
@@ -1403,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>45008</v>
@@ -1415,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>45009</v>
@@ -1427,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>45010</v>
@@ -1436,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>45011</v>
@@ -1445,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>45012</v>
@@ -1457,7 +1588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>45013</v>
@@ -1469,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>45014</v>
@@ -1481,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>45015</v>
@@ -1536,6 +1667,9 @@
       <c r="I62" s="4">
         <f>SUM(I2:I61)</f>
         <v>301</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
@@ -1551,5 +1685,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>